--- a/crm接口文档/客户来访管理/查看客户记录列表.xlsx
+++ b/crm接口文档/客户来访管理/查看客户记录列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14490" windowHeight="5040"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>URL</t>
   </si>
@@ -27,7 +27,7 @@
     <t>接口描述</t>
   </si>
   <si>
-    <t>查看客户来访记录详情</t>
+    <t>查看客户来访记录列表</t>
   </si>
   <si>
     <t>接口地址</t>
@@ -48,9 +48,6 @@
     <t>Content-Type</t>
   </si>
   <si>
-    <t>application/json;charset=utf-8</t>
-  </si>
-  <si>
     <t>输入参数来源</t>
   </si>
   <si>
@@ -69,12 +66,30 @@
     <t>缺省值</t>
   </si>
   <si>
+    <t>根对象</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>当前页码</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>每页条数</t>
+  </si>
+  <si>
     <t> 输出参数来源</t>
   </si>
   <si>
-    <t>根对象</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
@@ -93,9 +108,6 @@
     <t>响应错误码</t>
   </si>
   <si>
-    <t>可选</t>
-  </si>
-  <si>
     <t>msg</t>
   </si>
   <si>
@@ -105,10 +117,43 @@
     <t>data</t>
   </si>
   <si>
+    <t>pageInfo</t>
+  </si>
+  <si>
+    <t>绑定信息的对象</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>总条数</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>总页数</t>
+  </si>
+  <si>
+    <t>hasPreviousPage</t>
+  </si>
+  <si>
+    <t>是否有上一页</t>
+  </si>
+  <si>
+    <t>hasNextPage</t>
+  </si>
+  <si>
+    <t>是否有下一页</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>List&lt;CusVisitRecordVo&gt;</t>
   </si>
   <si>
-    <t>绑定信息的对象</t>
+    <t>具体列表数据</t>
   </si>
   <si>
     <t>CusVisitRecordVo</t>
@@ -161,12 +206,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,22 +258,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11.3"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,51 +391,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -316,25 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,28 +419,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -390,13 +441,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDFADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDFADE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,85 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,92 +637,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -624,41 +675,52 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,51 +750,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,10 +780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,7 +792,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,128 +801,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,44 +950,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1310,20 +1319,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:10">
+    <row r="1" ht="15" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,12 +1345,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1350,12 +1357,8 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10">
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1363,19 +1366,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
-        <v>8080</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:10">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="28.5" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1383,309 +1380,405 @@
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="27.75" customHeight="1" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8" t="s">
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:6">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:10">
-      <c r="A8" s="16" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10">
-      <c r="A9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:10">
-      <c r="A10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" ht="19" customHeight="1" spans="1:10">
-      <c r="A11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="15" spans="1:5">
+      <c r="A20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:5">
+      <c r="A21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" ht="15" spans="1:9">
-      <c r="A12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:9">
-      <c r="A13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:9">
-      <c r="A14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:9">
-      <c r="A16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:9">
-      <c r="A17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:1">
-      <c r="A18" s="18"/>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:5">
+      <c r="A22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:5">
+      <c r="A23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:5">
+      <c r="A24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:5">
+      <c r="A25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:1">
+      <c r="A26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:H18"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>
-    <hyperlink ref="F9" r:id="rId2" display="响应错误码"/>
+    <hyperlink ref="D10" r:id="rId2" display="响应错误码"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/crm接口文档/客户来访管理/查看客户记录列表.xlsx
+++ b/crm接口文档/客户来访管理/查看客户记录列表.xlsx
@@ -195,7 +195,7 @@
     <t>客户来访内容</t>
   </si>
   <si>
-    <t>cusEvaluation</t>
+    <t>cusEvaluationStr</t>
   </si>
   <si>
     <t>客户评价</t>
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -290,6 +290,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -322,6 +337,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -329,16 +366,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,59 +419,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -453,187 +453,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +675,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,32 +709,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -729,22 +718,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,9 +749,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,10 +780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,133 +792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/crm接口文档/客户来访管理/查看客户记录列表.xlsx
+++ b/crm接口文档/客户来访管理/查看客户记录列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>URL</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>客户评价</t>
+  </si>
+  <si>
+    <t>cusVisitStartTime</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>客户来访开始时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data不为空时必须 </t>
+  </si>
+  <si>
+    <t>cusVisitEndTime</t>
+  </si>
+  <si>
+    <t>客户来访结束时间</t>
   </si>
 </sst>
 </file>
@@ -206,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -277,12 +295,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -291,7 +324,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,97 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,11 +431,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -453,19 +471,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,37 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,128 +655,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -675,6 +693,57 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -686,6 +755,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,48 +806,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -757,21 +814,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -780,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,137 +834,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +1012,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1319,13 +1382,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="$A26:$XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1747,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:5">
+    <row r="25" ht="15.75" spans="1:5">
       <c r="A25" s="15" t="s">
         <v>46</v>
       </c>
@@ -1764,17 +1827,60 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:1">
-      <c r="A26" s="15"/>
+    <row r="26" ht="15.75" spans="1:9">
+      <c r="A26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:9">
+      <c r="A27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户来访管理/查看客户记录列表.xlsx
+++ b/crm接口文档/客户来访管理/查看客户记录列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>URL</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>客户来访结束时间</t>
+  </si>
+  <si>
+    <t>cusEvaluation</t>
   </si>
 </sst>
 </file>
@@ -224,9 +227,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -294,8 +297,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,21 +314,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,16 +380,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +403,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -370,54 +420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +474,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,7 +582,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,163 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,24 +723,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -759,17 +744,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,6 +785,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -822,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,133 +837,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,10 +1385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="$A26:$XFD27"/>
+      <selection activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1869,8 +1872,25 @@
         <v>64</v>
       </c>
     </row>
+    <row r="28" ht="15" spans="1:9">
+      <c r="A28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:C3"/>
@@ -1881,6 +1901,8 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户来访管理/查看客户记录列表.xlsx
+++ b/crm接口文档/客户来访管理/查看客户记录列表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qiuxx-space\qiuxx-project-confluence\crm接口文档\客户来访管理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
   <si>
     <t>URL</t>
   </si>
@@ -177,12 +182,6 @@
     <t>客户姓名</t>
   </si>
   <si>
-    <t>lkmName</t>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-  </si>
-  <si>
     <t>cusVisitAddress</t>
   </si>
   <si>
@@ -220,19 +219,55 @@
   </si>
   <si>
     <t>cusEvaluation</t>
+  </si>
+  <si>
+    <t>cusId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ong</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户评价字符串（用于显示）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,14 +279,14 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -263,20 +298,20 @@
       <sz val="10.5"/>
       <color rgb="FF3B73AF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -288,93 +323,16 @@
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.3"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -383,65 +341,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,194 +384,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -719,277 +445,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,6 +485,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1025,9 +515,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1037,62 +524,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1379,357 +828,357 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:6">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:6">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:6">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="15" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
@@ -1745,205 +1194,203 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:5">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:5">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:5">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:5">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="1:5">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
-        <v>60</v>
+      <c r="D25" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="E25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="1:9">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="20" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:9">
-      <c r="A27" s="15" t="s">
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:9">
-      <c r="A28" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
+      <c r="F28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:H28"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>
-    <hyperlink ref="D10" r:id="rId2" display="响应错误码"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="https://www.21mhealth.com/"/>
+    <hyperlink ref="D10" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>